--- a/input/modell_data_westeros.xlsx
+++ b/input/modell_data_westeros.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu47zip\Modelle\d2ix_dev\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu47zip\Modelle\d2ix_public\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32056" windowHeight="13636" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32056" windowHeight="13636" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="demand" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="104">
   <si>
     <t>technology</t>
   </si>
@@ -333,13 +333,28 @@
   </si>
   <si>
     <t>GW/a</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>unrated</t>
+  </si>
+  <si>
+    <t>firm</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +404,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -603,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,6 +1064,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1558,7 +1582,7 @@
   </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1872,7 +1896,7 @@
   <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D5"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3076,79 +3100,193 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:E10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.44140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2"/>
-      <c r="C2"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="161" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="161" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="161" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="161" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="161" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="161" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2"/>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>-0.1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>0.25</v>
+      </c>
+      <c r="E4">
+        <v>-0.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>-0.7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -3165,7 +3303,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>

--- a/input/modell_data_westeros.xlsx
+++ b/input/modell_data_westeros.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu47zip\Modelle\d2ix_public\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu47zip\Modelle\d2ix\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32056" windowHeight="13636" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32056" windowHeight="13636" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="demand" sheetId="3" r:id="rId1"/>
@@ -626,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -638,51 +638,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -713,53 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -946,7 +859,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1043,12 +955,6 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1061,10 +967,32 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1467,26 +1395,26 @@
     <col min="8" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1494,7 +1422,7 @@
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>700</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1503,7 +1431,7 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="15">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1517,7 +1445,7 @@
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>710</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1526,7 +1454,7 @@
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="16">
         <v>150</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1540,16 +1468,16 @@
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>720</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="16">
         <v>190</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1589,63 +1517,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1653,39 +1581,39 @@
       <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1693,71 +1621,71 @@
       <c r="A13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1765,7 +1693,7 @@
       <c r="A22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1773,15 +1701,15 @@
       <c r="A23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1789,7 +1717,7 @@
       <c r="A25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1797,7 +1725,7 @@
       <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1805,7 +1733,7 @@
       <c r="A27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1813,7 +1741,7 @@
       <c r="A28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1821,7 +1749,7 @@
       <c r="A29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1829,39 +1757,39 @@
       <c r="A30" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1895,843 +1823,843 @@
   </sheetPr>
   <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.44140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="3.5546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.44140625" style="155" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="3.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="4.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.5546875" style="4" customWidth="1"/>
-    <col min="42" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="10.5546875" style="127" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="129" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="130" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="132" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="3.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" style="129" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="129" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.44140625" style="133" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.44140625" style="129" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.5546875" style="134" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.5546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.5546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.5546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.5546875" style="129" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.5546875" style="127" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.5546875" style="127" customWidth="1"/>
+    <col min="42" max="16384" width="8.88671875" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="15" customFormat="1" ht="155" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:43" s="135" customFormat="1" ht="155" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="123" t="s">
+      <c r="I1" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="125" t="s">
+      <c r="L1" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="121" t="s">
+      <c r="M1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="126" t="s">
+      <c r="N1" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="121" t="s">
+      <c r="O1" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="121" t="s">
+      <c r="P1" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="156" t="s">
+      <c r="Q1" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="121" t="s">
+      <c r="R1" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="150" t="s">
+      <c r="S1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="123" t="s">
+      <c r="T1" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="122" t="s">
+      <c r="U1" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="127" t="s">
+      <c r="V1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="121" t="s">
+      <c r="W1" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="128" t="s">
+      <c r="X1" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="121" t="s">
+      <c r="Y1" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="126" t="s">
+      <c r="Z1" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="121" t="s">
+      <c r="AA1" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="121" t="s">
+      <c r="AB1" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="126" t="s">
+      <c r="AC1" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="AD1" s="121" t="s">
+      <c r="AD1" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="123" t="s">
+      <c r="AE1" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="AF1" s="121" t="s">
+      <c r="AF1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="123" t="s">
+      <c r="AG1" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="121" t="s">
+      <c r="AH1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="123" t="s">
+      <c r="AI1" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="121" t="s">
+      <c r="AJ1" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="122" t="s">
+      <c r="AK1" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="121" t="s">
+      <c r="AL1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="121" t="s">
+      <c r="AM1" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" s="121" t="s">
+      <c r="AN1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="126" t="s">
+      <c r="AO1" s="94" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130" t="s">
+    <row r="2" spans="1:43" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="131">
+      <c r="C2" s="99">
         <v>690</v>
       </c>
-      <c r="D2" s="132">
+      <c r="D2" s="100">
         <v>720</v>
       </c>
-      <c r="E2" s="133">
+      <c r="E2" s="101">
         <v>500</v>
       </c>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135">
+      <c r="F2" s="102"/>
+      <c r="G2" s="103">
         <v>30</v>
       </c>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="135">
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="103">
         <v>30</v>
       </c>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="133">
+      <c r="K2" s="104"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="101">
         <v>20</v>
       </c>
-      <c r="N2" s="133">
+      <c r="N2" s="101">
         <v>1</v>
       </c>
-      <c r="O2" s="138"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="157" t="s">
+      <c r="O2" s="106"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="149" t="s">
+      <c r="R2" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="151">
+      <c r="S2" s="119">
         <v>1</v>
       </c>
-      <c r="T2" s="136"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="142">
+      <c r="T2" s="104"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="110">
         <v>100</v>
       </c>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142">
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110">
         <v>1</v>
       </c>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="145"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="145"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="146"/>
-      <c r="AL2" s="142">
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="113"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="113"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="110">
         <v>0.1</v>
       </c>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="148"/>
-    </row>
-    <row r="3" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66" t="s">
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="116"/>
+    </row>
+    <row r="3" spans="1:43" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="36">
         <v>690</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="37">
         <v>720</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="38">
         <v>1500</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71">
+      <c r="F3" s="39"/>
+      <c r="G3" s="40">
         <v>10</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="69">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="38">
         <v>20</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="38">
         <v>1</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="158" t="s">
+      <c r="O3" s="44"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="152">
+      <c r="S3" s="120">
         <v>1</v>
       </c>
-      <c r="T3" s="73"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79">
+      <c r="T3" s="42"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48">
         <v>1</v>
       </c>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="79">
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="48">
         <v>0.1</v>
       </c>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="87"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-    </row>
-    <row r="4" spans="1:43" s="119" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98" t="s">
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+    </row>
+    <row r="4" spans="1:43" s="137" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="68">
         <v>690</v>
       </c>
-      <c r="D4" s="100">
+      <c r="D4" s="69">
         <v>720</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="70">
         <v>300</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105">
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74">
         <v>50</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="101">
+      <c r="K4" s="73"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="70">
         <v>20</v>
       </c>
-      <c r="N4" s="101">
+      <c r="N4" s="70">
         <v>1</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="159" t="s">
+      <c r="Q4" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="S4" s="153">
+      <c r="S4" s="121">
         <v>1</v>
       </c>
-      <c r="T4" s="104"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112">
+      <c r="T4" s="73"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81">
         <v>1</v>
       </c>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="118"/>
-    </row>
-    <row r="5" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="89" t="s">
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="87"/>
+    </row>
+    <row r="5" spans="1:43" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="36">
         <v>690</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="37">
         <v>720</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="59">
         <v>5</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="90">
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="59">
         <v>1</v>
       </c>
-      <c r="N5" s="90">
+      <c r="N5" s="59">
         <v>1</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="O5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="P5" s="88" t="s">
+      <c r="P5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="158" t="s">
+      <c r="Q5" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="88" t="s">
+      <c r="R5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="152">
+      <c r="S5" s="120">
         <v>1</v>
       </c>
-      <c r="T5" s="73"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85">
+      <c r="T5" s="42"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54">
         <v>1</v>
       </c>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="86"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-    </row>
-    <row r="6" spans="1:43" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="79"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="79"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="86"/>
-      <c r="AO6" s="87"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-    </row>
-    <row r="7" spans="1:43" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="35"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+    </row>
+    <row r="6" spans="1:43" s="128" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="127"/>
+      <c r="AQ6" s="127"/>
+    </row>
+    <row r="7" spans="1:43" s="128" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="154"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="127"/>
+      <c r="AQ7" s="127"/>
     </row>
     <row r="8" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F8" s="36"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="154"/>
-      <c r="U8" s="7"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="AK8" s="7"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
+      <c r="F8" s="60"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="120"/>
+      <c r="U8" s="131"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="AK8" s="131"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
     </row>
     <row r="9" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F9" s="36"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="154"/>
-      <c r="U9" s="7"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="AK9" s="7"/>
-      <c r="AN9" s="49"/>
-      <c r="AO9" s="49"/>
+      <c r="F9" s="60"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="120"/>
+      <c r="U9" s="131"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="AK9" s="131"/>
+      <c r="AN9" s="55"/>
+      <c r="AO9" s="55"/>
     </row>
     <row r="10" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F10" s="36"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="154"/>
-      <c r="U10" s="7"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="AK10" s="7"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
+      <c r="F10" s="60"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="120"/>
+      <c r="U10" s="131"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="AK10" s="131"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="55"/>
     </row>
     <row r="11" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F11" s="36"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="154"/>
-      <c r="U11" s="7"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="AK11" s="7"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="49"/>
+      <c r="F11" s="60"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="120"/>
+      <c r="U11" s="131"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="AK11" s="131"/>
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="55"/>
     </row>
     <row r="12" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F12" s="36"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="154"/>
-      <c r="U12" s="7"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="AK12" s="7"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="F12" s="60"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="120"/>
+      <c r="U12" s="131"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="AK12" s="131"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
     </row>
     <row r="13" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F13" s="36"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="154"/>
-      <c r="U13" s="7"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="AK13" s="7"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
+      <c r="F13" s="60"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="120"/>
+      <c r="U13" s="131"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="AK13" s="131"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="55"/>
     </row>
     <row r="14" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F14" s="36"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="154"/>
-      <c r="U14" s="7"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="AK14" s="7"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
+      <c r="F14" s="60"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="120"/>
+      <c r="U14" s="131"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="AK14" s="131"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
     </row>
     <row r="15" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F15" s="36"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="154"/>
-      <c r="U15" s="7"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="AK15" s="7"/>
-      <c r="AN15" s="49"/>
-      <c r="AO15" s="49"/>
+      <c r="F15" s="60"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="120"/>
+      <c r="U15" s="131"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="AK15" s="131"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="55"/>
     </row>
     <row r="16" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F16" s="36"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="154"/>
-      <c r="U16" s="7"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="AK16" s="7"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="49"/>
+      <c r="F16" s="60"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="120"/>
+      <c r="U16" s="131"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="AK16" s="131"/>
+      <c r="AN16" s="55"/>
+      <c r="AO16" s="55"/>
     </row>
     <row r="17" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F17" s="36"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="154"/>
-      <c r="U17" s="7"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="AK17" s="7"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="49"/>
+      <c r="F17" s="60"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="120"/>
+      <c r="U17" s="131"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="AK17" s="131"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="55"/>
     </row>
     <row r="18" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F18" s="36"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="154"/>
-      <c r="U18" s="7"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="AK18" s="7"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
+      <c r="F18" s="60"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="120"/>
+      <c r="U18" s="131"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="AK18" s="131"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
     </row>
     <row r="19" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F19" s="36"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="154"/>
-      <c r="U19" s="7"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="AK19" s="7"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
+      <c r="F19" s="60"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="120"/>
+      <c r="U19" s="131"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="AK19" s="131"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
     </row>
     <row r="20" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F20" s="36"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="154"/>
-      <c r="U20" s="7"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="AK20" s="7"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="49"/>
+      <c r="F20" s="60"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="120"/>
+      <c r="U20" s="131"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="AK20" s="131"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
     </row>
     <row r="21" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F21" s="36"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="154"/>
-      <c r="U21" s="7"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="AK21" s="7"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="49"/>
+      <c r="F21" s="60"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="120"/>
+      <c r="U21" s="131"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="AK21" s="131"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
     </row>
     <row r="22" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F22" s="36"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="154"/>
-      <c r="U22" s="7"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="AK22" s="7"/>
-      <c r="AN22" s="49"/>
-      <c r="AO22" s="49"/>
+      <c r="F22" s="60"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="120"/>
+      <c r="U22" s="131"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="AK22" s="131"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
     </row>
     <row r="23" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="P23" s="5"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="154"/>
-      <c r="U23" s="7"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="AK23" s="7"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="120"/>
+      <c r="U23" s="131"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="AK23" s="131"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="55"/>
     </row>
     <row r="24" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="S24" s="154"/>
-      <c r="U24" s="9"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="AK24" s="9"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
+      <c r="S24" s="120"/>
+      <c r="U24" s="54"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="AK24" s="54"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55"/>
     </row>
     <row r="25" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="S25" s="154"/>
-      <c r="U25" s="9"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="AK25" s="9"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
+      <c r="S25" s="120"/>
+      <c r="U25" s="54"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="AK25" s="54"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55"/>
     </row>
   </sheetData>
   <dataValidations xWindow="64" yWindow="506" count="9">
@@ -2765,93 +2693,93 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="33" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2905,66 +2833,66 @@
     <col min="1" max="1" width="16.44140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="10.21875" style="6" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" style="11"/>
+    <col min="4" max="5" width="11.5546875" style="8"/>
     <col min="6" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="28"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5">
@@ -3006,21 +2934,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="5"/>
     </row>
   </sheetData>
@@ -3056,10 +2984,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3102,17 +3030,17 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -3120,31 +3048,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="161" t="s">
+      <c r="E1" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="161" t="s">
+      <c r="F1" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="161" t="s">
+      <c r="G1" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="161" t="s">
+      <c r="I1" s="126" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3311,149 +3239,149 @@
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="61" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:2" s="30" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="23"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="23"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="23"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="23"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="23"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="23"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="23"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="54"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="54"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="54"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="54"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="54"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="54"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+      <c r="A25" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A19:F24">
